--- a/配置表/UnitFishBoat.xlsx
+++ b/配置表/UnitFishBoat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gitee\danmufishKSGit\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A10879D-C3AA-43BA-A442-EB0E992BA623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23A38FD-80C6-45FD-8D78-521DCB2FF399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GameItem" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,9 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>0:赛季
+          <t>0:音符掉落
 1:不展示
-2:不展示
+2:拍卖掉落
 3:不展示
 4:Boss掉落</t>
         </r>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="676">
   <si>
     <t>id</t>
   </si>
@@ -183,9 +183,6 @@
     <t>Boat/SR/Boat201</t>
   </si>
   <si>
-    <t>一只可爱的鸭鸭船</t>
-  </si>
-  <si>
     <t>黑鸭鸭</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>Boat/SR/Boat202_blue</t>
   </si>
   <si>
-    <t>一条圆滚滚的灯笼鱼</t>
-  </si>
-  <si>
     <t>灯笼鱼粉</t>
   </si>
   <si>
@@ -441,9 +435,6 @@
     <t>Boat/SR/Boat226_red</t>
   </si>
   <si>
-    <t>野外求生自制木筏</t>
-  </si>
-  <si>
     <t>木筏黄</t>
   </si>
   <si>
@@ -477,1004 +468,965 @@
     <t>Boat/SR/Boat230_red</t>
   </si>
   <si>
+    <t>鲤鱼旗绿</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat230_green</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat230_green</t>
+  </si>
+  <si>
+    <t>鲤鱼旗紫</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat230_purple</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat230_purple</t>
+  </si>
+  <si>
+    <t>莲花台</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat233</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat233</t>
+  </si>
+  <si>
+    <t>巨大的莲花台</t>
+  </si>
+  <si>
+    <t>福字结</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat234</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat234</t>
+  </si>
+  <si>
+    <t>黄香蕉</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat235_yellow</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat235_yellow</t>
+  </si>
+  <si>
+    <t>红香蕉</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat235_red</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat235_red</t>
+  </si>
+  <si>
+    <t>紫香蕉</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat235_purple</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat235_purple</t>
+  </si>
+  <si>
+    <t>绿香蕉</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat235_green</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat235_green</t>
+  </si>
+  <si>
+    <t>黄海星</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat239_yellow</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat239_yellow</t>
+  </si>
+  <si>
+    <t>白海星</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat239_white</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat239_white</t>
+  </si>
+  <si>
+    <t>据说是胖大星的亲戚</t>
+  </si>
+  <si>
+    <t>蓝海星</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat239_blue</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat239_blue</t>
+  </si>
+  <si>
+    <t>红螃蟹</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat242_red</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat242_red</t>
+  </si>
+  <si>
+    <t>蓝螃蟹</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat242_blue</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat242_blue</t>
+  </si>
+  <si>
+    <t>绿螃蟹</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat242_green</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat242_green</t>
+  </si>
+  <si>
+    <t>紫螃蟹</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat242_purple</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat242_purple</t>
+  </si>
+  <si>
+    <t>恐怖南瓜</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat246</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat246</t>
+  </si>
+  <si>
+    <t>粉寄居蟹</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat247_red</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat247_red</t>
+  </si>
+  <si>
+    <t>绿寄居蟹</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat247_green</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat247_green</t>
+  </si>
+  <si>
+    <t>紫寄居蟹</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat247_purple</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat247_purple</t>
+  </si>
+  <si>
+    <t>周大金花</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat251</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat251</t>
+  </si>
+  <si>
+    <t>黄章鱼</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boss252_yellow</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boss252_yellow</t>
+  </si>
+  <si>
+    <t>蓝章鱼</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boss252_blue</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boss252_blue</t>
+  </si>
+  <si>
+    <t>黑章鱼</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boss252_gray</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boss252_gray</t>
+  </si>
+  <si>
+    <t>黄飞机</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat255_yellow</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat255_yellow</t>
+  </si>
+  <si>
+    <t>蓝飞机</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat255_blue</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat255_blue</t>
+  </si>
+  <si>
+    <t>紫飞机</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat255_purple</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat255_purple</t>
+  </si>
+  <si>
+    <t>骨头</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat258</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat258</t>
+  </si>
+  <si>
+    <t>绿海龟</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat259_green</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat259_green</t>
+  </si>
+  <si>
+    <t>粉海龟</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat259_red</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat259_red</t>
+  </si>
+  <si>
+    <t>蓝海龟</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat259_blue</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat259_blue</t>
+  </si>
+  <si>
+    <t>红独角鲸</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat262_red</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat262_red</t>
+  </si>
+  <si>
+    <t>黄独角鲸</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat262_yellow</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat262_yellow</t>
+  </si>
+  <si>
+    <t>蓝独角鲸</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat262_blue</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat262_blue</t>
+  </si>
+  <si>
+    <t>圣诞驯鹿</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat265</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat265</t>
+  </si>
+  <si>
+    <t>紫泳圈</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat218_purple</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat218_purple</t>
+  </si>
+  <si>
+    <t>蓝飞船</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat267_blue</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat267_blue</t>
+  </si>
+  <si>
+    <t>绿飞船</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat267_green</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat267_green</t>
+  </si>
+  <si>
+    <t>黄飞船</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat267_yellow</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat267_yellow</t>
+  </si>
+  <si>
+    <t>黑幼龙</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boss270_black</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boss270_black</t>
+  </si>
+  <si>
+    <t>蓝幼龙</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boss270_blue</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boss270_blue</t>
+  </si>
+  <si>
+    <t>金幼龙</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boss270_gold</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boss270_gold</t>
+  </si>
+  <si>
+    <t>金元宝</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat273</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat273</t>
+  </si>
+  <si>
+    <t>战舰蓝</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat501_blue</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat501_blue</t>
+  </si>
+  <si>
+    <t>帅气的蓝色战舰</t>
+  </si>
+  <si>
+    <t>战舰红</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat501_red</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat501_red</t>
+  </si>
+  <si>
+    <t>帅气的红色战舰</t>
+  </si>
+  <si>
+    <t>战舰黑</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat501_black</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat501_black</t>
+  </si>
+  <si>
+    <t>帅气的黑色战舰</t>
+  </si>
+  <si>
+    <t>火之高兴</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat502_red</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat502_red</t>
+  </si>
+  <si>
+    <t>霜之悲伤</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat502_blue</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat502_blue</t>
+  </si>
+  <si>
+    <t>胡萝卜</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat503_red</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat503_red</t>
+  </si>
+  <si>
+    <t>一根巨大的胡萝卜</t>
+  </si>
+  <si>
+    <t>白萝卜</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat503_white</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat503_white</t>
+  </si>
+  <si>
+    <t>一根巨大的白萝卜</t>
+  </si>
+  <si>
+    <t>金月弯弯</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat508</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat508</t>
+  </si>
+  <si>
+    <t>金色的弯弯月亮船</t>
+  </si>
+  <si>
+    <t>猩红鲨鲨</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boss509</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boss509</t>
+  </si>
+  <si>
+    <t>脾气超火爆的鲨鱼幼崽</t>
+  </si>
+  <si>
+    <t>鲨鲨潜艇</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat510</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat510</t>
+  </si>
+  <si>
+    <t>鲨鱼涂装的炫酷小潜艇</t>
+  </si>
+  <si>
+    <t>彩灯笼鱼</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat511</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat511</t>
+  </si>
+  <si>
+    <t>一条圆滚滚的炫彩灯笼鱼</t>
+  </si>
+  <si>
+    <t>咩了个羊</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat512</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat512</t>
+  </si>
+  <si>
+    <t>鲤鱼旗黑</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat513</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat513</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat514</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat514</t>
+  </si>
+  <si>
+    <t>花鼓船</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat515</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat515</t>
+  </si>
+  <si>
+    <t>香蕉串</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat516</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat516</t>
+  </si>
+  <si>
+    <t>炫彩海星</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat517</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat517</t>
+  </si>
+  <si>
+    <t>深海发现的酷炫海星</t>
+  </si>
+  <si>
+    <t>魔女扫帚</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat518</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat518</t>
+  </si>
+  <si>
+    <t>巫女扫帚</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat519</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat519</t>
+  </si>
+  <si>
+    <t>黑海星</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat520</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat520</t>
+  </si>
+  <si>
+    <t>邪恶的黑色海星</t>
+  </si>
+  <si>
+    <t>炫彩螃蟹</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat521</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat521</t>
+  </si>
+  <si>
+    <t>炫彩大螃蟹，咔嚓咔嚓</t>
+  </si>
+  <si>
+    <t>黄金咩咩</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat522</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat522</t>
+  </si>
+  <si>
+    <t>会叫的黄金咩咩羊</t>
+  </si>
+  <si>
+    <t>猩红血棺</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat523</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat523</t>
+  </si>
+  <si>
+    <t>大寄居蟹</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat524</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat524</t>
+  </si>
+  <si>
+    <t>紫色钢琴</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat525</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat525</t>
+  </si>
+  <si>
+    <t>章章公主</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boss526</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boss526</t>
+  </si>
+  <si>
+    <t>战斗机</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat527</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat527</t>
+  </si>
+  <si>
+    <t>黄金骨</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat528</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat528</t>
+  </si>
+  <si>
+    <t>魔骨</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat529</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat529</t>
+  </si>
+  <si>
+    <t>黑海龟</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat530</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat530</t>
+  </si>
+  <si>
+    <t>赤魔剑</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat531</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat531</t>
+  </si>
+  <si>
+    <t>粉猫爪</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat532</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat532</t>
+  </si>
+  <si>
+    <t>大力士杯</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat533</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat533</t>
+  </si>
+  <si>
+    <t>魔莲</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat534</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat534</t>
+  </si>
+  <si>
+    <t>海怪宝珠</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boss535</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boss535</t>
+  </si>
+  <si>
+    <t>邪恶角鲸</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat536</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat536</t>
+  </si>
+  <si>
+    <t>圣诞雪橇</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat537</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat537</t>
+  </si>
+  <si>
+    <t>强化飞船</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat538</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat538</t>
+  </si>
+  <si>
+    <t>机械飞龙</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boss539</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boss539</t>
+  </si>
+  <si>
+    <t>瑞兽船</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat540</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat540</t>
+  </si>
+  <si>
+    <t>迷之生物</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boss541</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boss541</t>
+  </si>
+  <si>
+    <t>南喵喵</t>
+  </si>
+  <si>
+    <t>Icon/Ship/UR/Boat901</t>
+  </si>
+  <si>
+    <t>Boat/UR/Boat901</t>
+  </si>
+  <si>
+    <t>污喵喵</t>
+  </si>
+  <si>
+    <t>Icon/Ship/UR/Boat902</t>
+  </si>
+  <si>
+    <t>Boat/UR/Boat902</t>
+  </si>
+  <si>
+    <t>咕咕咩</t>
+  </si>
+  <si>
+    <t>Icon/Ship/UR/Boat903</t>
+  </si>
+  <si>
+    <t>Boat/UR/Boat903</t>
+  </si>
+  <si>
+    <t>四叶草</t>
+  </si>
+  <si>
+    <t>Icon/Ship/UR/Boat904</t>
+  </si>
+  <si>
+    <t>Boat/UR/Boat904</t>
+  </si>
+  <si>
+    <t>Icon/Ship/UR/Boat905</t>
+  </si>
+  <si>
+    <t>Boat/UR/Boat905</t>
+  </si>
+  <si>
+    <t>炫女郎冠军奖杯</t>
+  </si>
+  <si>
+    <t>受到辐射的巨大绿色香蕉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>据说是胖大星的亲戚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜甜的棒棒糖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>散发着寒冰气息的飞剑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>散发着灼热气息的飞剑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>至尊黄金骨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>带有魔气的骨头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪恶的海龟，眼神充满杀气</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代表世界足球最高荣誉的世界杯奖杯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>带有一丝魔气的莲花</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有异常能量的宝珠</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪恶的独角鲸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有圣诞夜才会出现的圣诞老人乘坐的雪橇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于单人宇宙飞船的强化型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大的AI机械龙守卫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>过年期间出现的象征祥瑞之兽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>从未见过的生物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于战斗的飞机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>章鱼一族可爱的公主</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能弹出优美音乐的紫色钢琴船</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大的寄居蟹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>猩红的吸血鬼棺材</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林巫女的魔法扫帚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林魔女的魔法扫帚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>999足金的金元宝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说和圣诞老人一起出现的驯鹿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一根光滑的骨头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>999足金的金花船</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>万圣节的大南瓜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一串香蕉，看起来能让几个人吃饱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>华丽的牡丹花与大鼓结合渔船</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>飘动的可爱鲤鱼旗</t>
-  </si>
-  <si>
-    <t>鲤鱼旗绿</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat230_green</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat230_green</t>
-  </si>
-  <si>
-    <t>鲤鱼旗紫</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat230_purple</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat230_purple</t>
-  </si>
-  <si>
-    <t>莲花台</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat233</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat233</t>
-  </si>
-  <si>
-    <t>巨大的莲花台</t>
-  </si>
-  <si>
-    <t>福字结</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat234</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat234</t>
-  </si>
-  <si>
-    <t>黄香蕉</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat235_yellow</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat235_yellow</t>
-  </si>
-  <si>
-    <t>红香蕉</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat235_red</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat235_red</t>
-  </si>
-  <si>
-    <t>紫香蕉</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat235_purple</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat235_purple</t>
-  </si>
-  <si>
-    <t>绿香蕉</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat235_green</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat235_green</t>
-  </si>
-  <si>
-    <t>黄海星</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat239_yellow</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat239_yellow</t>
-  </si>
-  <si>
-    <t>白海星</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat239_white</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat239_white</t>
-  </si>
-  <si>
-    <t>据说是胖大星的亲戚</t>
-  </si>
-  <si>
-    <t>蓝海星</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat239_blue</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat239_blue</t>
-  </si>
-  <si>
-    <t>红螃蟹</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat242_red</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat242_red</t>
-  </si>
-  <si>
-    <t>蓝螃蟹</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat242_blue</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat242_blue</t>
-  </si>
-  <si>
-    <t>绿螃蟹</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat242_green</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat242_green</t>
-  </si>
-  <si>
-    <t>紫螃蟹</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat242_purple</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat242_purple</t>
-  </si>
-  <si>
-    <t>恐怖南瓜</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat246</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat246</t>
-  </si>
-  <si>
-    <t>粉寄居蟹</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat247_red</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat247_red</t>
-  </si>
-  <si>
-    <t>绿寄居蟹</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat247_green</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat247_green</t>
-  </si>
-  <si>
-    <t>紫寄居蟹</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat247_purple</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat247_purple</t>
-  </si>
-  <si>
-    <t>周大金花</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat251</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat251</t>
-  </si>
-  <si>
-    <t>黄章鱼</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boss252_yellow</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boss252_yellow</t>
-  </si>
-  <si>
-    <t>蓝章鱼</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boss252_blue</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boss252_blue</t>
-  </si>
-  <si>
-    <t>黑章鱼</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boss252_gray</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boss252_gray</t>
-  </si>
-  <si>
-    <t>黄飞机</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat255_yellow</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat255_yellow</t>
-  </si>
-  <si>
-    <t>蓝飞机</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat255_blue</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat255_blue</t>
-  </si>
-  <si>
-    <t>紫飞机</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat255_purple</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat255_purple</t>
-  </si>
-  <si>
-    <t>骨头</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat258</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat258</t>
-  </si>
-  <si>
-    <t>绿海龟</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat259_green</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat259_green</t>
-  </si>
-  <si>
-    <t>粉海龟</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat259_red</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat259_red</t>
-  </si>
-  <si>
-    <t>蓝海龟</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat259_blue</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat259_blue</t>
-  </si>
-  <si>
-    <t>红独角鲸</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat262_red</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat262_red</t>
-  </si>
-  <si>
-    <t>黄独角鲸</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat262_yellow</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat262_yellow</t>
-  </si>
-  <si>
-    <t>蓝独角鲸</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat262_blue</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat262_blue</t>
-  </si>
-  <si>
-    <t>圣诞驯鹿</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat265</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat265</t>
-  </si>
-  <si>
-    <t>紫泳圈</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat218_purple</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat218_purple</t>
-  </si>
-  <si>
-    <t>蓝飞船</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat267_blue</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat267_blue</t>
-  </si>
-  <si>
-    <t>绿飞船</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat267_green</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat267_green</t>
-  </si>
-  <si>
-    <t>黄飞船</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat267_yellow</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat267_yellow</t>
-  </si>
-  <si>
-    <t>黑幼龙</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boss270_black</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boss270_black</t>
-  </si>
-  <si>
-    <t>蓝幼龙</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boss270_blue</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boss270_blue</t>
-  </si>
-  <si>
-    <t>金幼龙</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boss270_gold</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boss270_gold</t>
-  </si>
-  <si>
-    <t>金元宝</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat273</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat273</t>
-  </si>
-  <si>
-    <t>战舰蓝</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat501_blue</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat501_blue</t>
-  </si>
-  <si>
-    <t>帅气的蓝色战舰</t>
-  </si>
-  <si>
-    <t>战舰红</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat501_red</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat501_red</t>
-  </si>
-  <si>
-    <t>帅气的红色战舰</t>
-  </si>
-  <si>
-    <t>战舰黑</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat501_black</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat501_black</t>
-  </si>
-  <si>
-    <t>帅气的黑色战舰</t>
-  </si>
-  <si>
-    <t>火之高兴</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat502_red</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat502_red</t>
-  </si>
-  <si>
-    <t>霜之悲伤</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat502_blue</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat502_blue</t>
-  </si>
-  <si>
-    <t>胡萝卜</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat503_red</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat503_red</t>
-  </si>
-  <si>
-    <t>一根巨大的胡萝卜</t>
-  </si>
-  <si>
-    <t>白萝卜</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat503_white</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat503_white</t>
-  </si>
-  <si>
-    <t>一根巨大的白萝卜</t>
-  </si>
-  <si>
-    <t>金月弯弯</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat508</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat508</t>
-  </si>
-  <si>
-    <t>金色的弯弯月亮船</t>
-  </si>
-  <si>
-    <t>猩红鲨鲨</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boss509</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boss509</t>
-  </si>
-  <si>
-    <t>脾气超火爆的鲨鱼幼崽</t>
-  </si>
-  <si>
-    <t>鲨鲨潜艇</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat510</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat510</t>
-  </si>
-  <si>
-    <t>鲨鱼涂装的炫酷小潜艇</t>
-  </si>
-  <si>
-    <t>彩灯笼鱼</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat511</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat511</t>
-  </si>
-  <si>
-    <t>一条圆滚滚的炫彩灯笼鱼</t>
-  </si>
-  <si>
-    <t>咩了个羊</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat512</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat512</t>
-  </si>
-  <si>
-    <t>鲤鱼旗黑</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat513</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat513</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat514</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat514</t>
-  </si>
-  <si>
-    <t>花鼓船</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat515</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat515</t>
-  </si>
-  <si>
-    <t>香蕉串</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat516</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat516</t>
-  </si>
-  <si>
-    <t>炫彩海星</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat517</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat517</t>
-  </si>
-  <si>
-    <t>深海发现的酷炫海星</t>
-  </si>
-  <si>
-    <t>魔女扫帚</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat518</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat518</t>
-  </si>
-  <si>
-    <t>巫女扫帚</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat519</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat519</t>
-  </si>
-  <si>
-    <t>黑海星</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat520</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat520</t>
-  </si>
-  <si>
-    <t>邪恶的黑色海星</t>
-  </si>
-  <si>
-    <t>炫彩螃蟹</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat521</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat521</t>
-  </si>
-  <si>
-    <t>炫彩大螃蟹，咔嚓咔嚓</t>
-  </si>
-  <si>
-    <t>黄金咩咩</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat522</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat522</t>
-  </si>
-  <si>
-    <t>会叫的黄金咩咩羊</t>
-  </si>
-  <si>
-    <t>猩红血棺</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat523</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat523</t>
-  </si>
-  <si>
-    <t>大寄居蟹</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat524</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat524</t>
-  </si>
-  <si>
-    <t>紫色钢琴</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat525</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat525</t>
-  </si>
-  <si>
-    <t>章章公主</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boss526</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boss526</t>
-  </si>
-  <si>
-    <t>战斗机</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat527</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat527</t>
-  </si>
-  <si>
-    <t>黄金骨</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat528</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat528</t>
-  </si>
-  <si>
-    <t>魔骨</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat529</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat529</t>
-  </si>
-  <si>
-    <t>黑海龟</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat530</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat530</t>
-  </si>
-  <si>
-    <t>赤魔剑</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat531</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat531</t>
-  </si>
-  <si>
-    <t>粉猫爪</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat532</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat532</t>
-  </si>
-  <si>
-    <t>大力士杯</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat533</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat533</t>
-  </si>
-  <si>
-    <t>魔莲</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat534</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat534</t>
-  </si>
-  <si>
-    <t>海怪宝珠</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boss535</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boss535</t>
-  </si>
-  <si>
-    <t>邪恶角鲸</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat536</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat536</t>
-  </si>
-  <si>
-    <t>圣诞雪橇</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat537</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat537</t>
-  </si>
-  <si>
-    <t>强化飞船</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat538</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat538</t>
-  </si>
-  <si>
-    <t>机械飞龙</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boss539</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boss539</t>
-  </si>
-  <si>
-    <t>瑞兽船</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat540</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat540</t>
-  </si>
-  <si>
-    <t>迷之生物</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boss541</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boss541</t>
-  </si>
-  <si>
-    <t>南喵喵</t>
-  </si>
-  <si>
-    <t>Icon/Ship/UR/Boat901</t>
-  </si>
-  <si>
-    <t>Boat/UR/Boat901</t>
-  </si>
-  <si>
-    <t>污喵喵</t>
-  </si>
-  <si>
-    <t>Icon/Ship/UR/Boat902</t>
-  </si>
-  <si>
-    <t>Boat/UR/Boat902</t>
-  </si>
-  <si>
-    <t>咕咕咩</t>
-  </si>
-  <si>
-    <t>Icon/Ship/UR/Boat903</t>
-  </si>
-  <si>
-    <t>Boat/UR/Boat903</t>
-  </si>
-  <si>
-    <t>四叶草</t>
-  </si>
-  <si>
-    <t>Icon/Ship/UR/Boat904</t>
-  </si>
-  <si>
-    <t>Boat/UR/Boat904</t>
-  </si>
-  <si>
-    <t>Icon/Ship/UR/Boat905</t>
-  </si>
-  <si>
-    <t>Boat/UR/Boat905</t>
-  </si>
-  <si>
-    <t>炫女郎冠军奖杯</t>
-  </si>
-  <si>
-    <t>受到辐射的巨大绿色香蕉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>据说是胖大星的亲戚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于侦查海域的飞机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>圆嘟嘟的独角鲸鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>甜甜的棒棒糖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨大钳子的圆滚滚螃蟹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>散发着寒冰气息的飞剑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>散发着灼热气息的飞剑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>至尊黄金骨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>带有魔气的骨头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪恶的海龟，眼神充满杀气</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>代表世界足球最高荣誉的世界杯奖杯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>带有一丝魔气的莲花</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有异常能量的宝珠</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪恶的独角鲸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有圣诞夜才会出现的圣诞老人乘坐的雪橇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于单人宇宙飞船的强化型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨大的AI机械龙守卫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>过年期间出现的象征祥瑞之兽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>从未见过的生物</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于战斗的飞机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>章鱼一族可爱的公主</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>能弹出优美音乐的紫色钢琴船</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨大的寄居蟹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>猩红的吸血鬼棺材</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>森林巫女的魔法扫帚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>森林魔女的魔法扫帚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>999足金的金元宝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小型AI机械龙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以直飞宇宙的单人宇宙飞船</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>传说和圣诞老人一起出现的驯鹿</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨大的海龟，似乎活了很多年</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一根光滑的骨头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪恶的小章鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>圆嘟嘟的小章鱼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>999足金的金花船</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼鬼祟祟的寄居蟹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>万圣节的大南瓜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一串香蕉，看起来能让几个人吃饱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>华丽的牡丹花与大鼓结合渔船</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>飘动的可爱鲤鱼旗</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1482,10 +1434,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>安全第一，穿上泳圈吧！</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>受到辐射的巨大黄色香蕉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1588,349 +1536,345 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>海盗木筏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>海盗水手专用木筏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>软绵绵的猫爪，在上面呆久了会容易睡着</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱情水晶</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat542</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat542</t>
+  </si>
+  <si>
+    <t>代表了爱情的稀世水晶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>充满煞气的绝世魔剑,鲨鱼隐藏BOSS掉落</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>海盗船</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>海盗船长的座驾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炫女郎杯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>//599</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸鱼王</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat546</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat546</t>
+  </si>
+  <si>
+    <t>拾荒者</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat284</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat284</t>
+  </si>
+  <si>
+    <t>龙舟</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat555</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat555</t>
+  </si>
+  <si>
+    <t>筋斗云</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat548</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat548</t>
+  </si>
+  <si>
+    <t>大师UFO</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat552</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat552</t>
+  </si>
+  <si>
+    <t>神舟火箭</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boss551</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boss551</t>
+  </si>
+  <si>
+    <t>星穹列车</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boss554</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boss554</t>
+  </si>
+  <si>
+    <t>血魔云</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat549</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat549</t>
+  </si>
+  <si>
+    <t>芭蕉扇</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat550</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat550</t>
+  </si>
+  <si>
+    <t>豚骨拉面</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat553</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat553</t>
+  </si>
+  <si>
+    <t>浓郁的汤汁，劲道的面条，是香香的滋味，可带劲了！</t>
+  </si>
+  <si>
+    <t>炫彩宝箱</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat547</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat547</t>
+  </si>
+  <si>
+    <t>紫金宝箱</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat281</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat281</t>
+  </si>
+  <si>
+    <t>熟牛排</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat282</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat282</t>
+  </si>
+  <si>
+    <t>生牛排</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat283</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat283</t>
+  </si>
+  <si>
+    <t>彩虹小马</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat285</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat285</t>
+  </si>
+  <si>
+    <t>粉红小马</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat286</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat286</t>
+  </si>
+  <si>
+    <t>黑白小马</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat287</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat287</t>
+  </si>
+  <si>
+    <t>蜜蜂火箭</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boss288</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boss288</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时空火箭</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boss289</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boss289</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索火箭</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boss290</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boss290</t>
+  </si>
+  <si>
+    <t>侦查UFO</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat291</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat291</t>
+  </si>
+  <si>
+    <t>卫士UFO</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat292</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat292</t>
+  </si>
+  <si>
+    <t>指挥UFO</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat293</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat293</t>
+  </si>
+  <si>
+    <t>虾仁寿司</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat294</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat294</t>
+  </si>
+  <si>
+    <t>散发迷人香味的虾仁寿司</t>
+  </si>
+  <si>
+    <t>脆爽薯条</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat295</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat295</t>
+  </si>
+  <si>
+    <t>刚刚炸出来的脆爽薯条，嘎嘎香</t>
+  </si>
+  <si>
+    <t>牛肉堡</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat296</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat296</t>
+  </si>
+  <si>
+    <t>炫彩岛麦德士限量售卖的汉堡包！超多肉馅！</t>
+  </si>
+  <si>
+    <t>虾仁披萨</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat297</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat297</t>
+  </si>
+  <si>
+    <t>粽子推车</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat298</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat298</t>
+  </si>
+  <si>
+    <t>方块机</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SR/Boat280</t>
+  </si>
+  <si>
+    <t>Boat/SR/Boat280</t>
+  </si>
+  <si>
+    <t>花影摇梦</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat543</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat543</t>
+  </si>
+  <si>
+    <t>炫彩鳄鳄</t>
+  </si>
+  <si>
+    <t>Icon/Ship/SSR/Boat544</t>
+  </si>
+  <si>
+    <t>Boat/SSR/Boat544</t>
+  </si>
+  <si>
     <t>鳄鳄，饭饭~</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>海盗木筏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>海盗水手专用木筏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>软绵绵的猫爪，在上面呆久了会容易睡着</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱情水晶</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat542</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat542</t>
-  </si>
-  <si>
-    <t>代表了爱情的稀世水晶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>充满煞气的绝世魔剑,鲨鱼隐藏BOSS掉落</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>海盗船</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>海盗船长的座驾</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>炫女郎杯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>//599</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>咸鱼王</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat546</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat546</t>
-  </si>
-  <si>
-    <t>拾荒者</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat284</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat284</t>
-  </si>
-  <si>
-    <t>龙舟</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat555</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat555</t>
-  </si>
-  <si>
-    <t>筋斗云</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat548</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat548</t>
-  </si>
-  <si>
-    <t>大师UFO</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat552</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat552</t>
-  </si>
-  <si>
-    <t>神舟火箭</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boss551</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boss551</t>
-  </si>
-  <si>
-    <t>星穹列车</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boss554</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boss554</t>
-  </si>
-  <si>
-    <t>血魔云</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat549</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat549</t>
-  </si>
-  <si>
-    <t>芭蕉扇</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat550</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat550</t>
-  </si>
-  <si>
-    <t>豚骨拉面</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat553</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat553</t>
-  </si>
-  <si>
-    <t>浓郁的汤汁，劲道的面条，是香香的滋味，可带劲了！</t>
-  </si>
-  <si>
-    <t>炫彩宝箱</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat547</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat547</t>
-  </si>
-  <si>
-    <t>紫金宝箱</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat281</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat281</t>
-  </si>
-  <si>
-    <t>熟牛排</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat282</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat282</t>
-  </si>
-  <si>
-    <t>生牛排</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat283</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat283</t>
-  </si>
-  <si>
-    <t>彩虹小马</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat285</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat285</t>
-  </si>
-  <si>
-    <t>粉红小马</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat286</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat286</t>
-  </si>
-  <si>
-    <t>黑白小马</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat287</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat287</t>
-  </si>
-  <si>
-    <t>蜜蜂火箭</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boss288</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boss288</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时空火箭</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boss289</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boss289</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>探索火箭</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boss290</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boss290</t>
-  </si>
-  <si>
-    <t>侦查UFO</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat291</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat291</t>
-  </si>
-  <si>
-    <t>卫士UFO</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat292</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat292</t>
-  </si>
-  <si>
-    <t>指挥UFO</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat293</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat293</t>
-  </si>
-  <si>
-    <t>虾仁寿司</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat294</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat294</t>
-  </si>
-  <si>
-    <t>散发迷人香味的虾仁寿司</t>
-  </si>
-  <si>
-    <t>脆爽薯条</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat295</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat295</t>
-  </si>
-  <si>
-    <t>刚刚炸出来的脆爽薯条，嘎嘎香</t>
-  </si>
-  <si>
-    <t>牛肉堡</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat296</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat296</t>
-  </si>
-  <si>
-    <t>炫彩岛麦德士限量售卖的汉堡包！超多肉馅！</t>
-  </si>
-  <si>
-    <t>虾仁披萨</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat297</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat297</t>
-  </si>
-  <si>
-    <t>粽子推车</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat298</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat298</t>
-  </si>
-  <si>
-    <t>方块机</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SR/Boat280</t>
-  </si>
-  <si>
-    <t>Boat/SR/Boat280</t>
-  </si>
-  <si>
-    <t>花影摇梦</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat543</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat543</t>
-  </si>
-  <si>
-    <t>炫彩鳄鳄</t>
-  </si>
-  <si>
-    <t>Icon/Ship/SSR/Boat544</t>
-  </si>
-  <si>
-    <t>Boat/SSR/Boat544</t>
-  </si>
-  <si>
-    <t>鳄鳄，饭饭~</t>
   </si>
   <si>
     <t>俄罗斯块</t>
@@ -1986,10 +1930,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>带有翅膀的小天马</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>可以在外太空漫游的飞船</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2063,6 +2003,238 @@
   </si>
   <si>
     <t>//UR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可爱的黄色鸭鸭船</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可爱的黑色鸭鸭船</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可爱的白色鸭鸭船</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可爱的粉色鸭鸭船</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆滚滚的蓝色灯笼鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆滚滚的粉色灯笼鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆滚滚的黄色灯笼鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆滚滚的绿色灯笼鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全第一，穿上红色泳圈吧！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全第一，穿上黄色泳圈吧！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全第一，穿上绿色泳圈吧！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色应急鲱鱼罐头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色应急鲱鱼罐头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色应急鲱鱼罐头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘动的可爱红色鲤鱼旗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘动的可爱绿色鲤鱼旗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘动的可爱紫色鲤鱼旗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼鬼祟祟的粉色寄居蟹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼鬼祟祟的绿色寄居蟹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼鬼祟祟的紫色寄居蟹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆滚滚的紫色螃蟹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆滚滚的红色螃蟹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆滚滚的蓝色螃蟹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆滚滚的绿色螃蟹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆嘟嘟的黄色小章鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆嘟嘟的蓝色小章鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆嘟嘟的邪恶小章鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于侦查海域的黄色小飞机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于侦查海域的蓝色小飞机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于侦查海域的紫色小飞机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大的绿海龟，似乎活了很多年</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大的粉海龟，似乎活了很多年</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大的蓝海龟，似乎活了很多年</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆嘟嘟的红色独角鲸鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆嘟嘟的黄色独角鲸鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆嘟嘟的蓝色独角鲸鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以直飞宇宙的蓝色飞船</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以直飞宇宙的绿色飞船</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以直飞宇宙的黄色飞船</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小型AI机械黑龙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小型AI机械蓝龙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小型AI机械金龙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿鳄鳄，饭饭~</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>凶鳄鳄，饭饭~</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红鳄鳄，饭饭~</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>带有翅膀的彩虹小天马</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>带有翅膀的分红小天马</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>带有翅膀的黑白小天马</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以冲上宇宙的蜜蜂小火箭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以冲上宇宙的时空小火箭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以冲上宇宙的探索小火箭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于侦查的未知飞行物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于守卫的未知飞行物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于指挥的未知飞行物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全第一，穿上紫色泳圈吧！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自制的绿色野外求生木筏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自制的黄色野外求生木筏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生自制的红色野外求木筏</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2431,7 +2603,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2482,7 +2654,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -2505,7 +2677,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -2516,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2545,7 +2717,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2563,7 +2735,7 @@
         <v>21</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -2574,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2592,7 +2764,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -2603,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2621,7 +2793,7 @@
         <v>27</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -2632,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2661,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2690,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2699,16 +2871,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" t="s">
         <v>113</v>
       </c>
-      <c r="G10" t="s">
-        <v>114</v>
-      </c>
-      <c r="H10" t="s">
-        <v>115</v>
-      </c>
-      <c r="I10" t="s">
-        <v>112</v>
+      <c r="I10" s="3" t="s">
+        <v>629</v>
       </c>
       <c r="J10" s="3"/>
     </row>
@@ -2720,7 +2892,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2729,16 +2901,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" t="s">
         <v>116</v>
       </c>
-      <c r="G11" t="s">
-        <v>117</v>
-      </c>
-      <c r="H11" t="s">
-        <v>118</v>
-      </c>
-      <c r="I11" t="s">
-        <v>112</v>
+      <c r="I11" s="3" t="s">
+        <v>630</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -2750,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2759,16 +2931,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" t="s">
         <v>119</v>
       </c>
-      <c r="G12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" t="s">
-        <v>112</v>
+      <c r="I12" s="3" t="s">
+        <v>631</v>
       </c>
       <c r="J12" s="3"/>
     </row>
@@ -2780,7 +2952,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2789,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" t="s">
         <v>122</v>
       </c>
-      <c r="G13" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" t="s">
-        <v>125</v>
+      <c r="I13" s="3" t="s">
+        <v>675</v>
       </c>
       <c r="J13" s="3"/>
     </row>
@@ -2810,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2819,16 +2991,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I14" t="s">
         <v>125</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>674</v>
       </c>
       <c r="J14" s="3"/>
     </row>
@@ -2840,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2849,16 +3021,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H15" t="s">
-        <v>131</v>
-      </c>
-      <c r="I15" t="s">
-        <v>125</v>
+        <v>128</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>673</v>
       </c>
       <c r="J15" s="3"/>
     </row>
@@ -2870,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2879,16 +3051,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="J16" s="3"/>
     </row>
@@ -2900,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2909,16 +3081,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="J17" s="3"/>
     </row>
@@ -2930,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2939,16 +3111,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="J18" s="3"/>
     </row>
@@ -2960,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2969,22 +3141,22 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H19" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -2997,7 +3169,7 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3014,8 +3186,8 @@
       <c r="H21" t="s">
         <v>38</v>
       </c>
-      <c r="I21" t="s">
-        <v>39</v>
+      <c r="I21" s="3" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
@@ -3026,7 +3198,7 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3035,16 +3207,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s">
         <v>40</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>41</v>
       </c>
-      <c r="H22" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" t="s">
-        <v>39</v>
+      <c r="I22" s="3" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
@@ -3055,7 +3227,7 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3064,16 +3236,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" t="s">
         <v>43</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>44</v>
       </c>
-      <c r="H23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I23" t="s">
-        <v>39</v>
+      <c r="I23" s="3" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
@@ -3084,7 +3256,7 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3093,16 +3265,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" t="s">
         <v>46</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>47</v>
       </c>
-      <c r="H24" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" t="s">
-        <v>39</v>
+      <c r="I24" s="3" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
@@ -3113,7 +3285,7 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3122,16 +3294,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G25" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H25" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J25" s="3"/>
     </row>
@@ -3143,7 +3315,7 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3152,16 +3324,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" t="s">
         <v>53</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>54</v>
       </c>
-      <c r="H26" t="s">
-        <v>55</v>
-      </c>
-      <c r="I26" t="s">
-        <v>56</v>
+      <c r="I26" s="3" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
@@ -3172,7 +3344,7 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3181,16 +3353,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" t="s">
         <v>57</v>
       </c>
-      <c r="G27" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" t="s">
-        <v>59</v>
-      </c>
-      <c r="I27" t="s">
-        <v>56</v>
+      <c r="I27" s="3" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
@@ -3201,7 +3373,7 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3210,16 +3382,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" t="s">
         <v>60</v>
       </c>
-      <c r="G28" t="s">
-        <v>61</v>
-      </c>
-      <c r="H28" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" t="s">
-        <v>56</v>
+      <c r="I28" s="3" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
@@ -3230,7 +3402,7 @@
         <v>2</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3239,16 +3411,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" t="s">
         <v>63</v>
       </c>
-      <c r="G29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H29" t="s">
-        <v>65</v>
-      </c>
-      <c r="I29" t="s">
-        <v>56</v>
+      <c r="I29" s="3" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
@@ -3259,7 +3431,7 @@
         <v>2</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3268,16 +3440,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" t="s">
         <v>66</v>
       </c>
-      <c r="G30" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" t="s">
-        <v>68</v>
-      </c>
       <c r="I30" s="3" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
@@ -3288,7 +3460,7 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3297,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" t="s">
         <v>72</v>
       </c>
-      <c r="G31" t="s">
+      <c r="I31" t="s">
         <v>73</v>
-      </c>
-      <c r="H31" t="s">
-        <v>74</v>
-      </c>
-      <c r="I31" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
@@ -3317,7 +3489,7 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3326,16 +3498,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" t="s">
         <v>76</v>
       </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
         <v>77</v>
-      </c>
-      <c r="H32" t="s">
-        <v>78</v>
-      </c>
-      <c r="I32" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
@@ -3355,16 +3527,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" t="s">
         <v>80</v>
       </c>
-      <c r="G33" t="s">
+      <c r="I33" t="s">
         <v>81</v>
-      </c>
-      <c r="H33" t="s">
-        <v>82</v>
-      </c>
-      <c r="I33" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
@@ -3375,7 +3547,7 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3384,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" t="s">
         <v>84</v>
       </c>
-      <c r="G34" t="s">
+      <c r="I34" t="s">
         <v>85</v>
-      </c>
-      <c r="H34" t="s">
-        <v>86</v>
-      </c>
-      <c r="I34" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
@@ -3404,7 +3576,7 @@
         <v>2</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3413,16 +3585,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" t="s">
         <v>88</v>
       </c>
-      <c r="G35" t="s">
+      <c r="I35" t="s">
         <v>89</v>
-      </c>
-      <c r="H35" t="s">
-        <v>90</v>
-      </c>
-      <c r="I35" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
@@ -3433,7 +3605,7 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3442,16 +3614,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" t="s">
         <v>92</v>
       </c>
-      <c r="G36" t="s">
+      <c r="I36" t="s">
         <v>93</v>
-      </c>
-      <c r="H36" t="s">
-        <v>94</v>
-      </c>
-      <c r="I36" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
@@ -3462,7 +3634,7 @@
         <v>2</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -3471,16 +3643,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" t="s">
         <v>96</v>
       </c>
-      <c r="G37" t="s">
-        <v>97</v>
-      </c>
-      <c r="H37" t="s">
-        <v>98</v>
-      </c>
-      <c r="I37" t="s">
-        <v>99</v>
+      <c r="I37" s="3" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
@@ -3491,7 +3663,7 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3500,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" t="s">
         <v>100</v>
       </c>
-      <c r="G38" t="s">
-        <v>101</v>
-      </c>
-      <c r="H38" t="s">
-        <v>102</v>
-      </c>
-      <c r="I38" t="s">
-        <v>99</v>
+      <c r="I38" s="3" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
@@ -3520,7 +3692,7 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -3529,16 +3701,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
+        <v>101</v>
+      </c>
+      <c r="G39" t="s">
+        <v>102</v>
+      </c>
+      <c r="H39" t="s">
         <v>103</v>
       </c>
-      <c r="G39" t="s">
-        <v>104</v>
-      </c>
-      <c r="H39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I39" t="s">
-        <v>99</v>
+      <c r="I39" s="3" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
@@ -3549,7 +3721,7 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -3558,16 +3730,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" t="s">
         <v>109</v>
       </c>
-      <c r="G40" t="s">
+      <c r="I40" t="s">
         <v>110</v>
-      </c>
-      <c r="H40" t="s">
-        <v>111</v>
-      </c>
-      <c r="I40" t="s">
-        <v>112</v>
       </c>
       <c r="J40" s="3"/>
     </row>
@@ -3579,7 +3751,7 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -3588,16 +3760,16 @@
         <v>0</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="G41" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H41" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="J41" s="3"/>
     </row>
@@ -3618,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H42" t="s">
-        <v>136</v>
-      </c>
-      <c r="I42" t="s">
-        <v>137</v>
+        <v>133</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
@@ -3638,7 +3810,7 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -3647,16 +3819,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G43" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H43" t="s">
-        <v>140</v>
-      </c>
-      <c r="I43" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
@@ -3667,7 +3839,7 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3676,16 +3848,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G44" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H44" t="s">
-        <v>143</v>
-      </c>
-      <c r="I44" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
@@ -3696,7 +3868,7 @@
         <v>2</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3705,16 +3877,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G45" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H45" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I45" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
@@ -3725,7 +3897,7 @@
         <v>2</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3734,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G46" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H46" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
@@ -3754,7 +3926,7 @@
         <v>2</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -3763,16 +3935,16 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G47" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H47" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="J47" s="3"/>
     </row>
@@ -3784,7 +3956,7 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -3793,16 +3965,16 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H48" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -3813,7 +3985,7 @@
         <v>2</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -3822,16 +3994,16 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G49" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H49" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I49" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
@@ -3842,7 +4014,7 @@
         <v>2</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -3851,16 +4023,16 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G50" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H50" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
@@ -3871,7 +4043,7 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -3880,16 +4052,16 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G51" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H51" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>421</v>
+        <v>639</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
@@ -3900,7 +4072,7 @@
         <v>2</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -3909,16 +4081,16 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G52" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H52" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>421</v>
+        <v>640</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
@@ -3929,7 +4101,7 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -3938,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G53" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H53" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>421</v>
+        <v>641</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
@@ -3958,7 +4130,7 @@
         <v>2</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -3967,16 +4139,16 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G54" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H54" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>421</v>
+        <v>638</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
@@ -3987,7 +4159,7 @@
         <v>2</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -3996,16 +4168,16 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G55" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H55" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
@@ -4016,7 +4188,7 @@
         <v>2</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -4025,16 +4197,16 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G56" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H56" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>452</v>
+        <v>635</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
@@ -4045,7 +4217,7 @@
         <v>2</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -4054,16 +4226,16 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G57" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H57" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>452</v>
+        <v>636</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
@@ -4074,7 +4246,7 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -4083,16 +4255,16 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G58" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H58" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>452</v>
+        <v>637</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
@@ -4103,7 +4275,7 @@
         <v>2</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -4112,16 +4284,16 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G59" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H59" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>450</v>
+        <v>642</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
@@ -4132,7 +4304,7 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -4141,16 +4313,16 @@
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G60" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H60" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>450</v>
+        <v>643</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
@@ -4161,7 +4333,7 @@
         <v>2</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -4170,16 +4342,16 @@
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G61" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H61" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>449</v>
+        <v>644</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
@@ -4190,7 +4362,7 @@
         <v>2</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -4199,16 +4371,16 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G62" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H62" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>418</v>
+        <v>645</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
@@ -4219,7 +4391,7 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -4228,16 +4400,16 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G63" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H63" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>418</v>
+        <v>646</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
@@ -4248,7 +4420,7 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -4257,16 +4429,16 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G64" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H64" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>418</v>
+        <v>647</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
@@ -4277,7 +4449,7 @@
         <v>2</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -4286,16 +4458,16 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G65" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H65" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
@@ -4306,7 +4478,7 @@
         <v>2</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -4315,16 +4487,16 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G66" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H66" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>447</v>
+        <v>648</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
@@ -4335,7 +4507,7 @@
         <v>2</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -4344,16 +4516,16 @@
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G67" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H67" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>447</v>
+        <v>649</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
@@ -4364,7 +4536,7 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -4373,16 +4545,16 @@
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G68" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H68" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>447</v>
+        <v>650</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
@@ -4393,7 +4565,7 @@
         <v>2</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -4402,16 +4574,16 @@
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G69" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H69" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>419</v>
+        <v>651</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
@@ -4422,7 +4594,7 @@
         <v>2</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -4431,16 +4603,16 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G70" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H70" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>419</v>
+        <v>652</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
@@ -4451,7 +4623,7 @@
         <v>2</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -4460,16 +4632,16 @@
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G71" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H71" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>419</v>
+        <v>653</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
@@ -4480,7 +4652,7 @@
         <v>2</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -4489,16 +4661,16 @@
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G72" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H72" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
@@ -4509,7 +4681,7 @@
         <v>2</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -4518,16 +4690,16 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G73" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H73" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>458</v>
+        <v>672</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
@@ -4538,7 +4710,7 @@
         <v>2</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -4547,16 +4719,16 @@
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G74" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H74" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>445</v>
+        <v>654</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
@@ -4567,7 +4739,7 @@
         <v>2</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -4576,16 +4748,16 @@
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G75" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H75" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>445</v>
+        <v>655</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
@@ -4596,7 +4768,7 @@
         <v>2</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -4605,16 +4777,16 @@
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G76" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H76" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>445</v>
+        <v>656</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
@@ -4625,7 +4797,7 @@
         <v>2</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -4634,16 +4806,16 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G77" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H77" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>444</v>
+        <v>657</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
@@ -4654,7 +4826,7 @@
         <v>2</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -4663,16 +4835,16 @@
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G78" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H78" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>444</v>
+        <v>658</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
@@ -4683,7 +4855,7 @@
         <v>2</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -4692,16 +4864,16 @@
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G79" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H79" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>444</v>
+        <v>659</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
@@ -4712,7 +4884,7 @@
         <v>2</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -4721,16 +4893,16 @@
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G80" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H80" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
@@ -4741,7 +4913,7 @@
         <v>2</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -4750,16 +4922,16 @@
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="G81" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="H81" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -4769,8 +4941,8 @@
       <c r="B82" s="5">
         <v>2</v>
       </c>
-      <c r="C82" s="5">
-        <v>3</v>
+      <c r="C82">
+        <v>1</v>
       </c>
       <c r="D82" s="5">
         <v>0</v>
@@ -4779,16 +4951,16 @@
         <v>0</v>
       </c>
       <c r="F82" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="I82" s="6" t="s">
         <v>474</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -4798,8 +4970,8 @@
       <c r="B83" s="5">
         <v>2</v>
       </c>
-      <c r="C83" s="5">
-        <v>3</v>
+      <c r="C83">
+        <v>1</v>
       </c>
       <c r="D83" s="5">
         <v>0</v>
@@ -4808,16 +4980,16 @@
         <v>0</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>489</v>
+        <v>660</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -4827,8 +4999,8 @@
       <c r="B84" s="5">
         <v>2</v>
       </c>
-      <c r="C84" s="5">
-        <v>3</v>
+      <c r="C84">
+        <v>1</v>
       </c>
       <c r="D84" s="5">
         <v>0</v>
@@ -4837,16 +5009,16 @@
         <v>0</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>489</v>
+        <v>661</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -4856,8 +5028,8 @@
       <c r="B85" s="5">
         <v>2</v>
       </c>
-      <c r="C85" s="5">
-        <v>3</v>
+      <c r="C85">
+        <v>1</v>
       </c>
       <c r="D85" s="5">
         <v>0</v>
@@ -4866,16 +5038,16 @@
         <v>0</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>489</v>
+        <v>662</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
@@ -4886,7 +5058,7 @@
         <v>2</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -4895,16 +5067,16 @@
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="G86" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="H86" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
@@ -4915,7 +5087,7 @@
         <v>2</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -4924,16 +5096,16 @@
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="G87" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="H87" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
@@ -4944,7 +5116,7 @@
         <v>2</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -4953,16 +5125,16 @@
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="G88" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="H88" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
@@ -4973,7 +5145,7 @@
         <v>2</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -4982,16 +5154,16 @@
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="G89" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="H89" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
@@ -5002,7 +5174,7 @@
         <v>2</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -5011,16 +5183,16 @@
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="G90" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="H90" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>614</v>
+        <v>663</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
@@ -5031,7 +5203,7 @@
         <v>2</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -5040,16 +5212,16 @@
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="G91" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="H91" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>614</v>
+        <v>664</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
@@ -5060,7 +5232,7 @@
         <v>2</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -5069,16 +5241,16 @@
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="G92" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="H92" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>614</v>
+        <v>665</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
@@ -5089,7 +5261,7 @@
         <v>2</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -5098,16 +5270,16 @@
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="G93" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>607</v>
+        <v>666</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
@@ -5118,7 +5290,7 @@
         <v>2</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -5127,16 +5299,16 @@
         <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="G94" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>607</v>
+        <v>667</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
@@ -5147,7 +5319,7 @@
         <v>2</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -5156,16 +5328,16 @@
         <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="G95" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="H95" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>607</v>
+        <v>668</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
@@ -5176,7 +5348,7 @@
         <v>2</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -5185,16 +5357,16 @@
         <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="G96" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="H96" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>606</v>
+        <v>669</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
@@ -5205,7 +5377,7 @@
         <v>2</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -5214,16 +5386,16 @@
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="G97" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="H97" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>606</v>
+        <v>670</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
@@ -5234,7 +5406,7 @@
         <v>2</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -5243,16 +5415,16 @@
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="G98" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="H98" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>606</v>
+        <v>671</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
@@ -5263,7 +5435,7 @@
         <v>2</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -5272,16 +5444,16 @@
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="G99" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="H99" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="I99" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
@@ -5292,7 +5464,7 @@
         <v>2</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -5301,16 +5473,16 @@
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="G100" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="H100" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="I100" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
@@ -5321,7 +5493,7 @@
         <v>2</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -5330,16 +5502,16 @@
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="G101" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="H101" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="I101" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
@@ -5350,7 +5522,7 @@
         <v>2</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -5359,16 +5531,16 @@
         <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="G102" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="H102" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
@@ -5379,7 +5551,7 @@
         <v>2</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -5388,21 +5560,21 @@
         <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="G103" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="H103" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="E104" s="5"/>
       <c r="I104" s="3"/>
@@ -5415,7 +5587,7 @@
         <v>3</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -5424,16 +5596,16 @@
         <v>0</v>
       </c>
       <c r="F105" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G105" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H105" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I105" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
@@ -5444,7 +5616,7 @@
         <v>3</v>
       </c>
       <c r="C106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -5453,16 +5625,16 @@
         <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G106" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H106" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I106" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
@@ -5473,7 +5645,7 @@
         <v>3</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -5482,16 +5654,16 @@
         <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G107" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H107" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I107" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
@@ -5502,7 +5674,7 @@
         <v>3</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -5511,16 +5683,16 @@
         <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G108" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H108" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I108" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
@@ -5531,7 +5703,7 @@
         <v>3</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -5540,16 +5712,16 @@
         <v>0</v>
       </c>
       <c r="F109" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G109" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H109" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I109" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
@@ -5560,7 +5732,7 @@
         <v>3</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -5569,16 +5741,16 @@
         <v>0</v>
       </c>
       <c r="F110" t="s">
+        <v>48</v>
+      </c>
+      <c r="G110" t="s">
         <v>49</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>50</v>
       </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
         <v>51</v>
-      </c>
-      <c r="I110" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
@@ -5598,16 +5770,16 @@
         <v>0</v>
       </c>
       <c r="F111" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G111" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H111" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I111" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
@@ -5618,7 +5790,7 @@
         <v>3</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -5627,16 +5799,16 @@
         <v>0</v>
       </c>
       <c r="F112" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G112" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H112" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I112" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.15">
@@ -5647,7 +5819,7 @@
         <v>3</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -5656,16 +5828,16 @@
         <v>0</v>
       </c>
       <c r="F113" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G113" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H113" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I113" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.15">
@@ -5676,7 +5848,7 @@
         <v>3</v>
       </c>
       <c r="C114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -5685,16 +5857,16 @@
         <v>0</v>
       </c>
       <c r="F114" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G114" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H114" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="J114" s="3"/>
     </row>
@@ -5706,7 +5878,7 @@
         <v>3</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -5715,27 +5887,27 @@
         <v>0</v>
       </c>
       <c r="F115" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G115" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H115" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116" s="3" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="B116">
         <v>3</v>
       </c>
       <c r="C116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -5744,16 +5916,16 @@
         <v>0</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="G116" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H116" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.15">
@@ -5764,7 +5936,7 @@
         <v>3</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -5773,16 +5945,16 @@
         <v>0</v>
       </c>
       <c r="F117" t="s">
+        <v>104</v>
+      </c>
+      <c r="G117" t="s">
+        <v>105</v>
+      </c>
+      <c r="H117" t="s">
         <v>106</v>
       </c>
-      <c r="G117" t="s">
-        <v>107</v>
-      </c>
-      <c r="H117" t="s">
-        <v>108</v>
-      </c>
       <c r="I117" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -5792,8 +5964,8 @@
       <c r="B118" s="5">
         <v>3</v>
       </c>
-      <c r="C118" s="5">
-        <v>3</v>
+      <c r="C118">
+        <v>1</v>
       </c>
       <c r="D118" s="5">
         <v>0</v>
@@ -5802,16 +5974,16 @@
         <v>0</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="G118" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="I118" s="6" t="s">
         <v>472</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="I118" s="6" t="s">
-        <v>486</v>
       </c>
       <c r="J118" s="6"/>
     </row>
@@ -5823,7 +5995,7 @@
         <v>3</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -5832,16 +6004,16 @@
         <v>0</v>
       </c>
       <c r="F119" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G119" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H119" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I119" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.15">
@@ -5852,7 +6024,7 @@
         <v>3</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -5861,16 +6033,16 @@
         <v>0</v>
       </c>
       <c r="F120" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G120" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H120" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="J120" s="3"/>
     </row>
@@ -5882,7 +6054,7 @@
         <v>3</v>
       </c>
       <c r="C121">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -5891,16 +6063,16 @@
         <v>0</v>
       </c>
       <c r="F121" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G121" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H121" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="J121" s="3"/>
     </row>
@@ -5912,7 +6084,7 @@
         <v>3</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -5921,16 +6093,16 @@
         <v>0</v>
       </c>
       <c r="F122" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G122" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H122" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I122" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.15">
@@ -5941,7 +6113,7 @@
         <v>3</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -5950,16 +6122,16 @@
         <v>0</v>
       </c>
       <c r="F123" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G123" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H123" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I123" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.15">
@@ -5970,7 +6142,7 @@
         <v>3</v>
       </c>
       <c r="C124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -5979,16 +6151,16 @@
         <v>0</v>
       </c>
       <c r="F124" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G124" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H124" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I124" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.15">
@@ -5999,7 +6171,7 @@
         <v>3</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -6008,16 +6180,16 @@
         <v>0</v>
       </c>
       <c r="F125" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="G125" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="H125" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="J125" s="3"/>
     </row>
@@ -6029,7 +6201,7 @@
         <v>3</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -6038,16 +6210,16 @@
         <v>0</v>
       </c>
       <c r="F126" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G126" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H126" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.15">
@@ -6058,7 +6230,7 @@
         <v>3</v>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -6067,16 +6239,16 @@
         <v>0</v>
       </c>
       <c r="F127" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G127" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H127" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.15">
@@ -6087,7 +6259,7 @@
         <v>3</v>
       </c>
       <c r="C128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -6096,16 +6268,16 @@
         <v>0</v>
       </c>
       <c r="F128" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G128" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H128" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.15">
@@ -6116,7 +6288,7 @@
         <v>3</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -6125,27 +6297,27 @@
         <v>0</v>
       </c>
       <c r="F129" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G129" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H129" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130" s="3" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="B130">
         <v>3</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -6154,16 +6326,16 @@
         <v>0</v>
       </c>
       <c r="F130" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G130" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H130" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.15">
@@ -6174,7 +6346,7 @@
         <v>3</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -6183,27 +6355,27 @@
         <v>0</v>
       </c>
       <c r="F131" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G131" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H131" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A132" s="3" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="B132">
         <v>3</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -6212,27 +6384,27 @@
         <v>0</v>
       </c>
       <c r="F132" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G132" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H132" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A133" s="3" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="B133">
         <v>3</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -6241,16 +6413,16 @@
         <v>0</v>
       </c>
       <c r="F133" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G133" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H133" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.15">
@@ -6261,7 +6433,7 @@
         <v>3</v>
       </c>
       <c r="C134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -6270,16 +6442,16 @@
         <v>0</v>
       </c>
       <c r="F134" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G134" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H134" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="J134" s="3"/>
     </row>
@@ -6291,7 +6463,7 @@
         <v>3</v>
       </c>
       <c r="C135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -6300,16 +6472,16 @@
         <v>0</v>
       </c>
       <c r="F135" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G135" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H135" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.15">
@@ -6320,7 +6492,7 @@
         <v>3</v>
       </c>
       <c r="C136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -6329,16 +6501,16 @@
         <v>0</v>
       </c>
       <c r="F136" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G136" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H136" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.15">
@@ -6349,7 +6521,7 @@
         <v>3</v>
       </c>
       <c r="C137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -6358,16 +6530,16 @@
         <v>0</v>
       </c>
       <c r="F137" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G137" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H137" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.15">
@@ -6378,7 +6550,7 @@
         <v>3</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -6387,16 +6559,16 @@
         <v>0</v>
       </c>
       <c r="F138" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G138" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H138" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.15">
@@ -6407,7 +6579,7 @@
         <v>3</v>
       </c>
       <c r="C139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -6416,16 +6588,16 @@
         <v>0</v>
       </c>
       <c r="F139" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="G139" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="H139" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="I139" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.15">
@@ -6436,7 +6608,7 @@
         <v>3</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -6445,16 +6617,16 @@
         <v>0</v>
       </c>
       <c r="F140" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="G140" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="H140" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.15">
@@ -6465,7 +6637,7 @@
         <v>3</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -6474,16 +6646,16 @@
         <v>0</v>
       </c>
       <c r="F141" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="G141" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="H141" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.15">
@@ -6494,7 +6666,7 @@
         <v>3</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -6503,16 +6675,16 @@
         <v>0</v>
       </c>
       <c r="F142" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="G142" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="H142" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.15">
@@ -6523,7 +6695,7 @@
         <v>3</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -6532,16 +6704,16 @@
         <v>0</v>
       </c>
       <c r="F143" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="G143" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="H143" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.15">
@@ -6552,7 +6724,7 @@
         <v>3</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -6561,16 +6733,16 @@
         <v>0</v>
       </c>
       <c r="F144" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="G144" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="H144" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.15">
@@ -6581,7 +6753,7 @@
         <v>3</v>
       </c>
       <c r="C145">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -6590,16 +6762,16 @@
         <v>0</v>
       </c>
       <c r="F145" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="G145" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="H145" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.15">
@@ -6610,7 +6782,7 @@
         <v>3</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -6619,27 +6791,27 @@
         <v>0</v>
       </c>
       <c r="F146" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="G146" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="H146" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="I146" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A147" s="3" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="B147">
         <v>3</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -6648,21 +6820,21 @@
         <v>0</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="G147" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H147" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I147" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A148" s="3" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="F148" s="3"/>
     </row>
@@ -6674,7 +6846,7 @@
         <v>4</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -6683,16 +6855,16 @@
         <v>0</v>
       </c>
       <c r="F149" t="s">
+        <v>67</v>
+      </c>
+      <c r="G149" t="s">
+        <v>68</v>
+      </c>
+      <c r="H149" t="s">
         <v>69</v>
       </c>
-      <c r="G149" t="s">
-        <v>70</v>
-      </c>
-      <c r="H149" t="s">
-        <v>71</v>
-      </c>
       <c r="I149" s="3" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.15">
@@ -6703,7 +6875,7 @@
         <v>4</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -6712,16 +6884,16 @@
         <v>0</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G150" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H150" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I150" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="J150" s="3"/>
     </row>
@@ -6733,7 +6905,7 @@
         <v>4</v>
       </c>
       <c r="C151">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -6742,16 +6914,16 @@
         <v>0</v>
       </c>
       <c r="F151" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G151" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H151" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.15">
@@ -6762,7 +6934,7 @@
         <v>4</v>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -6771,16 +6943,16 @@
         <v>0</v>
       </c>
       <c r="F152" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G152" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H152" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.15">
@@ -6791,7 +6963,7 @@
         <v>4</v>
       </c>
       <c r="C153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -6800,16 +6972,16 @@
         <v>0</v>
       </c>
       <c r="F153" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G153" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H153" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.15">
@@ -6820,7 +6992,7 @@
         <v>4</v>
       </c>
       <c r="C154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -6829,16 +7001,16 @@
         <v>0</v>
       </c>
       <c r="F154" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G154" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H154" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.15">
@@ -6849,7 +7021,7 @@
         <v>4</v>
       </c>
       <c r="C155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -6858,16 +7030,16 @@
         <v>0</v>
       </c>
       <c r="F155" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G155" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H155" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.15">
@@ -6878,7 +7050,7 @@
         <v>4</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -6887,16 +7059,16 @@
         <v>0</v>
       </c>
       <c r="F156" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G156" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H156" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.15">
@@ -6907,7 +7079,7 @@
         <v>4</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -6916,16 +7088,16 @@
         <v>0</v>
       </c>
       <c r="F157" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G157" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H157" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.15">
@@ -6936,7 +7108,7 @@
         <v>4</v>
       </c>
       <c r="C158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -6945,16 +7117,16 @@
         <v>0</v>
       </c>
       <c r="F158" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G158" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H158" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.15">
@@ -6965,7 +7137,7 @@
         <v>4</v>
       </c>
       <c r="C159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -6974,16 +7146,16 @@
         <v>0</v>
       </c>
       <c r="F159" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="G159" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="H159" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.15">
@@ -6994,7 +7166,7 @@
         <v>4</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -7003,16 +7175,16 @@
         <v>0</v>
       </c>
       <c r="F160" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="G160" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="H160" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="J160" s="3"/>
     </row>
@@ -7024,7 +7196,7 @@
         <v>4</v>
       </c>
       <c r="C161">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -7033,16 +7205,16 @@
         <v>0</v>
       </c>
       <c r="F161" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G161" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H161" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.15">
@@ -7053,7 +7225,7 @@
         <v>4</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -7062,16 +7234,16 @@
         <v>0</v>
       </c>
       <c r="F162" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G162" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H162" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.15">
@@ -7082,7 +7254,7 @@
         <v>4</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -7091,16 +7263,16 @@
         <v>0</v>
       </c>
       <c r="F163" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G163" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H163" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.15">
@@ -7111,7 +7283,7 @@
         <v>4</v>
       </c>
       <c r="C164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -7120,16 +7292,16 @@
         <v>0</v>
       </c>
       <c r="F164" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G164" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H164" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.15">
@@ -7140,7 +7312,7 @@
         <v>4</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -7149,16 +7321,16 @@
         <v>0</v>
       </c>
       <c r="F165" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="G165" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="H165" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.15">
@@ -7169,7 +7341,7 @@
         <v>4</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -7178,16 +7350,16 @@
         <v>0</v>
       </c>
       <c r="F166" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="G166" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="H166" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.15">
@@ -7198,7 +7370,7 @@
         <v>4</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -7207,16 +7379,16 @@
         <v>0</v>
       </c>
       <c r="F167" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="G167" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="H167" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.15">
@@ -7227,7 +7399,7 @@
         <v>4</v>
       </c>
       <c r="C168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -7236,16 +7408,16 @@
         <v>0</v>
       </c>
       <c r="F168" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G168" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H168" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="J168" s="3"/>
     </row>
@@ -7257,7 +7429,7 @@
         <v>4</v>
       </c>
       <c r="C169">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -7266,16 +7438,16 @@
         <v>0</v>
       </c>
       <c r="F169" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="G169" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="H169" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="J169" s="3"/>
     </row>
